--- a/Tool for yield.xlsx
+++ b/Tool for yield.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="22300" windowHeight="14760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Yield" sheetId="1" r:id="rId1"/>
+    <sheet name="ToDate%" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -72,13 +73,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="4">
@@ -101,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -124,11 +137,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -142,9 +260,36 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -419,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,11 +594,12 @@
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -475,16 +621,17 @@
         <f>D2-E2</f>
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <f>C2+F2</f>
         <v>5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="10">
         <f>(C2/G2)*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -506,16 +653,17 @@
         <f t="shared" ref="F3:F6" si="0">D3-E3</f>
         <v>4</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <f t="shared" ref="G3:G7" si="1">C3+F3</f>
         <v>5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="11">
         <f t="shared" ref="H3:H7" si="2">(C3/G3)*100</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -537,16 +685,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="11">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -568,16 +717,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="12">
         <f t="shared" si="2"/>
         <v>42.857142857142854</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -603,12 +753,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="9">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -637,6 +788,103 @@
       <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>100</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14">
+        <f>A1/$A$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <f t="shared" ref="B2:B8" si="0">A2/$A$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>43</v>
+      </c>
+      <c r="B4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.72881355932203384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <f t="shared" si="0"/>
+        <v>6.7796610169491525E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1864406779661017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14">
+        <f t="shared" si="0"/>
+        <v>6.7796610169491525E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>59</v>
+      </c>
+      <c r="B8" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14">
+        <f t="shared" ref="B2:B9" si="1">A9/$A$9</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
